--- a/biology/Zoologie/Ballus_chalybeius/Ballus_chalybeius.xlsx
+++ b/biology/Zoologie/Ballus_chalybeius/Ballus_chalybeius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ballus chalybeius est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ballus chalybeius est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Afrique du Nord et jusqu'en Asie centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Afrique du Nord et jusqu'en Asie centrale.
 Elle est très commune en Europe centrale. Elle a été introduite dans certaines zones de l'Oural et de la Sibérie.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans l'herbe ou en lisière des forêts, où elle apprécie les buissons ou les feuilles, spécialement celles des chênes.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,7 à 3,6 mm et les femelles de 3 à 3,4 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,7 à 3,6 mm et les femelles de 3 à 3,4 mm.
 Sa carapace est brun foncé avec quelques marques plus claires. L'opisthosome fuselé est bien démarqué du céphalothorax. Les quatre paires de pattes (pédipalpes) sont jaunâtres, la paire antérieure étant brun foncé chez les mâles. Cette espèce se distingue par ses anneaux aux traces noires le long des segments de ses pattes.
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'espèce type du genre Ballus. Elle a été décrite par l'arachnologiste français Charles Athanase Walckenaer (1771-1852) en 1802 sous le protonyme Aranea depressa. Elle a longtemps été appelée Ballus depressus.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Walckenaer, 1802 : Faune parisienne, Insectes. ou Histoire abrégée des insectes des environs de Paris. Paris, vol. 2, p. 187-250 (texte intégral).</t>
         </is>
